--- a/mbs-EP-v.1.0.2/Excel Files/flyball_governor/flyball_governor_damper_spring_vel.xlsx
+++ b/mbs-EP-v.1.0.2/Excel Files/flyball_governor/flyball_governor_damper_spring_vel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.2\Excel Files\flyball_governor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF19FBC-9A57-4BEC-A9A7-182039A16D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5B244D-DDB3-4F55-A0E0-01D4FE076EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="4215" windowWidth="16200" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13080" yWindow="3675" windowWidth="16200" windowHeight="11385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -1143,7 +1143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1349,6 +1349,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2040,7 +2043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -2060,44 +2063,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="J2" s="81" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="J2" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="84"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="50">
         <v>10</v>
       </c>
       <c r="E3" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="88" t="s">
+      <c r="J3" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="89"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="88" t="s">
+      <c r="K3" s="90"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="N3" s="89"/>
-      <c r="O3" s="102"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="103"/>
       <c r="P3" s="44" t="s">
         <v>154</v>
       </c>
@@ -2106,10 +2109,10 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="84"/>
+      <c r="C4" s="85"/>
       <c r="D4" s="50">
         <v>1E-3</v>
       </c>
@@ -2122,14 +2125,14 @@
       <c r="K4" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="91"/>
+      <c r="L4" s="92"/>
       <c r="M4" s="43" t="s">
         <v>125</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="O4" s="103"/>
+      <c r="O4" s="104"/>
       <c r="P4" s="44" t="s">
         <v>155</v>
       </c>
@@ -2138,10 +2141,10 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="84"/>
+      <c r="C5" s="85"/>
       <c r="D5" s="50" t="s">
         <v>79</v>
       </c>
@@ -2154,14 +2157,14 @@
       <c r="K5" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="91"/>
+      <c r="L5" s="92"/>
       <c r="M5" s="44" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="103"/>
+      <c r="O5" s="104"/>
       <c r="P5" s="44" t="s">
         <v>156</v>
       </c>
@@ -2170,10 +2173,10 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="84"/>
+      <c r="C6" s="85"/>
       <c r="D6" s="50" t="s">
         <v>3</v>
       </c>
@@ -2186,14 +2189,14 @@
       <c r="K6" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="91"/>
+      <c r="L6" s="92"/>
       <c r="M6" s="44" t="s">
         <v>127</v>
       </c>
       <c r="N6" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="O6" s="103"/>
+      <c r="O6" s="104"/>
       <c r="P6" s="44" t="s">
         <v>160</v>
       </c>
@@ -2202,10 +2205,10 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="84"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="50">
         <v>-9806.5</v>
       </c>
@@ -2218,14 +2221,14 @@
       <c r="K7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="91"/>
+      <c r="L7" s="92"/>
       <c r="M7" s="44" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="103"/>
+      <c r="O7" s="104"/>
       <c r="P7" s="44" t="s">
         <v>159</v>
       </c>
@@ -2234,10 +2237,10 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="84"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="50" t="s">
         <v>123</v>
       </c>
@@ -2250,14 +2253,14 @@
       <c r="K8" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="91"/>
+      <c r="L8" s="92"/>
       <c r="M8" s="44" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="103"/>
+      <c r="O8" s="104"/>
       <c r="P8" s="44" t="s">
         <v>163</v>
       </c>
@@ -2266,10 +2269,10 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="84"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="50"/>
       <c r="E9" s="51" t="s">
         <v>117</v>
@@ -2280,14 +2283,14 @@
       <c r="K9" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="91"/>
+      <c r="L9" s="92"/>
       <c r="M9" s="44" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="103"/>
+      <c r="O9" s="104"/>
       <c r="P9" s="44" t="s">
         <v>164</v>
       </c>
@@ -2302,14 +2305,14 @@
       <c r="K10" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="91"/>
+      <c r="L10" s="92"/>
       <c r="M10" s="44" t="s">
         <v>14</v>
       </c>
       <c r="N10" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="103"/>
+      <c r="O10" s="104"/>
       <c r="P10" s="49" t="s">
         <v>165</v>
       </c>
@@ -2320,14 +2323,14 @@
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J11" s="53"/>
       <c r="K11" s="54"/>
-      <c r="L11" s="91"/>
+      <c r="L11" s="92"/>
       <c r="M11" s="44" t="s">
         <v>129</v>
       </c>
       <c r="N11" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="O11" s="103"/>
+      <c r="O11" s="104"/>
       <c r="P11" s="49" t="s">
         <v>166</v>
       </c>
@@ -2336,25 +2339,25 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
       <c r="J12" s="55"/>
       <c r="K12" s="56"/>
-      <c r="L12" s="91"/>
+      <c r="L12" s="92"/>
       <c r="M12" s="44" t="s">
         <v>130</v>
       </c>
       <c r="N12" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="O12" s="103"/>
+      <c r="O12" s="104"/>
       <c r="P12" s="44" t="s">
         <v>171</v>
       </c>
@@ -2363,27 +2366,27 @@
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="82"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="66"/>
       <c r="E13" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
       <c r="J13" s="55"/>
       <c r="K13" s="56"/>
-      <c r="L13" s="91"/>
+      <c r="L13" s="92"/>
       <c r="M13" s="44" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="103"/>
+      <c r="O13" s="104"/>
       <c r="P13" s="49" t="s">
         <v>172</v>
       </c>
@@ -2392,29 +2395,29 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="82"/>
+      <c r="C14" s="83"/>
       <c r="D14" s="66" t="s">
         <v>232</v>
       </c>
       <c r="E14" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
       <c r="J14" s="57"/>
       <c r="K14" s="58"/>
-      <c r="L14" s="91"/>
+      <c r="L14" s="92"/>
       <c r="M14" s="44" t="s">
         <v>131</v>
       </c>
       <c r="N14" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="O14" s="103"/>
+      <c r="O14" s="104"/>
       <c r="P14" s="49" t="s">
         <v>173</v>
       </c>
@@ -2423,31 +2426,31 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="82"/>
+      <c r="C15" s="83"/>
       <c r="D15" s="66" t="s">
         <v>232</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="J15" s="88" t="s">
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="J15" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="K15" s="89"/>
-      <c r="L15" s="91"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="92"/>
       <c r="M15" s="44" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="103"/>
+      <c r="O15" s="104"/>
       <c r="P15" s="49" t="s">
         <v>174</v>
       </c>
@@ -2456,31 +2459,31 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="82"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="66"/>
       <c r="E16" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
       <c r="J16" s="44" t="s">
         <v>90</v>
       </c>
       <c r="K16" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="L16" s="91"/>
+      <c r="L16" s="92"/>
       <c r="M16" s="44" t="s">
         <v>132</v>
       </c>
       <c r="N16" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="O16" s="103"/>
+      <c r="O16" s="104"/>
       <c r="P16" s="44" t="s">
         <v>179</v>
       </c>
@@ -2489,29 +2492,29 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="82"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="66"/>
       <c r="E17" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
       <c r="J17" s="44" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="91"/>
-      <c r="M17" s="88" t="s">
+      <c r="L17" s="92"/>
+      <c r="M17" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="N17" s="89"/>
-      <c r="O17" s="103"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="104"/>
       <c r="P17" s="49" t="s">
         <v>180</v>
       </c>
@@ -2520,33 +2523,33 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="105" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="105"/>
+      <c r="C18" s="106"/>
       <c r="D18" s="66" t="s">
         <v>232</v>
       </c>
       <c r="E18" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
       <c r="J18" s="44" t="s">
         <v>91</v>
       </c>
       <c r="K18" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="L18" s="91"/>
+      <c r="L18" s="92"/>
       <c r="M18" s="52" t="s">
         <v>153</v>
       </c>
       <c r="N18" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="O18" s="103"/>
+      <c r="O18" s="104"/>
       <c r="P18" s="49" t="s">
         <v>181</v>
       </c>
@@ -2555,31 +2558,31 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="105"/>
+      <c r="C19" s="106"/>
       <c r="D19" s="66"/>
       <c r="E19" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
       <c r="J19" s="44" t="s">
         <v>92</v>
       </c>
       <c r="K19" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="91"/>
+      <c r="L19" s="92"/>
       <c r="M19" s="45" t="s">
         <v>145</v>
       </c>
       <c r="N19" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="O19" s="103"/>
+      <c r="O19" s="104"/>
       <c r="P19" s="49" t="s">
         <v>182</v>
       </c>
@@ -2588,33 +2591,33 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="94" t="s">
         <v>241</v>
       </c>
-      <c r="C20" s="95"/>
+      <c r="C20" s="96"/>
       <c r="D20" s="47" t="s">
         <v>257</v>
       </c>
       <c r="E20" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
       <c r="J20" s="44" t="s">
         <v>98</v>
       </c>
       <c r="K20" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="L20" s="91"/>
+      <c r="L20" s="92"/>
       <c r="M20" s="45" t="s">
         <v>146</v>
       </c>
       <c r="N20" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="103"/>
+      <c r="O20" s="104"/>
       <c r="P20" s="44" t="s">
         <v>187</v>
       </c>
@@ -2623,31 +2626,31 @@
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="83" t="s">
         <v>242</v>
       </c>
-      <c r="C21" s="82"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="48"/>
       <c r="E21" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
       <c r="J21" s="44" t="s">
         <v>93</v>
       </c>
       <c r="K21" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="L21" s="91"/>
+      <c r="L21" s="92"/>
       <c r="M21" s="45" t="s">
         <v>147</v>
       </c>
       <c r="N21" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="O21" s="103"/>
+      <c r="O21" s="104"/>
       <c r="P21" s="49" t="s">
         <v>188</v>
       </c>
@@ -2656,35 +2659,35 @@
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="108" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="108"/>
+      <c r="C22" s="109"/>
       <c r="D22" s="66">
         <v>3</v>
       </c>
-      <c r="E22" s="113" t="s">
+      <c r="E22" s="114" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="116" t="s">
+      <c r="F22" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="119"/>
       <c r="J22" s="31" t="s">
         <v>104</v>
       </c>
       <c r="K22" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="L22" s="92"/>
+      <c r="L22" s="93"/>
       <c r="M22" s="45" t="s">
         <v>148</v>
       </c>
       <c r="N22" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="O22" s="103"/>
+      <c r="O22" s="104"/>
       <c r="P22" s="49" t="s">
         <v>189</v>
       </c>
@@ -2693,21 +2696,21 @@
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="109"/>
-      <c r="C23" s="110"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="111"/>
       <c r="D23" s="66">
         <v>4</v>
       </c>
-      <c r="E23" s="114"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="121"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="103"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="122"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="104"/>
       <c r="P23" s="49" t="s">
         <v>190</v>
       </c>
@@ -2716,21 +2719,21 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="109"/>
-      <c r="C24" s="110"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="111"/>
       <c r="D24" s="66">
         <v>5</v>
       </c>
-      <c r="E24" s="114"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="121"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="97"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="103"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="122"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="104"/>
       <c r="P24" s="31" t="s">
         <v>196</v>
       </c>
@@ -2739,19 +2742,19 @@
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="109"/>
-      <c r="C25" s="110"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="111"/>
       <c r="D25" s="66"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="121"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="103"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="122"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="104"/>
       <c r="P25" s="31" t="s">
         <v>200</v>
       </c>
@@ -2760,19 +2763,19 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="109"/>
-      <c r="C26" s="110"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="111"/>
       <c r="D26" s="66"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="121"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="103"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="122"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="104"/>
       <c r="P26" s="31" t="s">
         <v>201</v>
       </c>
@@ -2781,19 +2784,19 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="109"/>
-      <c r="C27" s="110"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="111"/>
       <c r="D27" s="66"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="121"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="103"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="122"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="104"/>
       <c r="P27" s="31" t="s">
         <v>202</v>
       </c>
@@ -2802,19 +2805,19 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="109"/>
-      <c r="C28" s="110"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="111"/>
       <c r="D28" s="66"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="119"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="121"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="97"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="103"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="122"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="104"/>
       <c r="P28" s="31" t="s">
         <v>204</v>
       </c>
@@ -2823,19 +2826,19 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="111"/>
-      <c r="C29" s="112"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="66"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="124"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="97"/>
-      <c r="M29" s="97"/>
-      <c r="N29" s="98"/>
-      <c r="O29" s="103"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="125"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="104"/>
       <c r="P29" s="31" t="s">
         <v>203</v>
       </c>
@@ -2844,12 +2847,12 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="96"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="97"/>
-      <c r="M30" s="97"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="103"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="104"/>
       <c r="P30" s="31" t="s">
         <v>205</v>
       </c>
@@ -2858,12 +2861,12 @@
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="96"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="97"/>
-      <c r="M31" s="97"/>
-      <c r="N31" s="98"/>
-      <c r="O31" s="103"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="98"/>
+      <c r="M31" s="98"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="104"/>
       <c r="P31" s="31" t="s">
         <v>206</v>
       </c>
@@ -2872,12 +2875,12 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="96"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="97"/>
-      <c r="M32" s="97"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="103"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="98"/>
+      <c r="M32" s="98"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="104"/>
       <c r="P32" s="31" t="s">
         <v>207</v>
       </c>
@@ -2886,12 +2889,12 @@
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="96"/>
-      <c r="K33" s="97"/>
-      <c r="L33" s="97"/>
-      <c r="M33" s="97"/>
-      <c r="N33" s="98"/>
-      <c r="O33" s="103"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="98"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="104"/>
       <c r="P33" s="31" t="s">
         <v>208</v>
       </c>
@@ -2900,12 +2903,12 @@
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="96"/>
-      <c r="K34" s="97"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="97"/>
-      <c r="N34" s="98"/>
-      <c r="O34" s="103"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="98"/>
+      <c r="M34" s="98"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="104"/>
       <c r="P34" s="31" t="s">
         <v>209</v>
       </c>
@@ -2914,12 +2917,12 @@
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="96"/>
-      <c r="K35" s="97"/>
-      <c r="L35" s="97"/>
-      <c r="M35" s="97"/>
-      <c r="N35" s="98"/>
-      <c r="O35" s="103"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="98"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="104"/>
       <c r="P35" s="31" t="s">
         <v>210</v>
       </c>
@@ -2928,12 +2931,12 @@
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="96"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="97"/>
-      <c r="N36" s="98"/>
-      <c r="O36" s="103"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="98"/>
+      <c r="L36" s="98"/>
+      <c r="M36" s="98"/>
+      <c r="N36" s="99"/>
+      <c r="O36" s="104"/>
       <c r="P36" s="31" t="s">
         <v>219</v>
       </c>
@@ -2942,12 +2945,12 @@
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="96"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="98"/>
-      <c r="O37" s="103"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="98"/>
+      <c r="L37" s="98"/>
+      <c r="M37" s="98"/>
+      <c r="N37" s="99"/>
+      <c r="O37" s="104"/>
       <c r="P37" s="31" t="s">
         <v>220</v>
       </c>
@@ -2956,12 +2959,12 @@
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="99"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="100"/>
-      <c r="M38" s="100"/>
-      <c r="N38" s="101"/>
-      <c r="O38" s="103"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="101"/>
+      <c r="L38" s="101"/>
+      <c r="M38" s="101"/>
+      <c r="N38" s="102"/>
+      <c r="O38" s="104"/>
       <c r="P38" s="31" t="s">
         <v>221</v>
       </c>
@@ -3020,8 +3023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK197"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7:Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3040,118 +3043,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="106"/>
-      <c r="B1" s="106"/>
-      <c r="C1" s="82" t="s">
+      <c r="A1" s="107"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82" t="s">
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82" t="s">
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82" t="s">
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82" t="s">
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82"/>
-      <c r="AG1" s="82"/>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="83"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="126" t="s">
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126" t="s">
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126" t="s">
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="82" t="s">
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82" t="s">
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="127" t="s">
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="S2" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="126" t="s">
+      <c r="S2" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="82" t="s">
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="104" t="s">
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="82" t="s">
+      <c r="AA2" s="129"/>
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="82" t="s">
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82" t="s">
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="82"/>
+      <c r="AJ2" s="83"/>
+      <c r="AK2" s="83"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3205,8 +3208,8 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="127"/>
-      <c r="S3" s="125"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="126"/>
       <c r="T3" s="16" t="s">
         <v>59</v>
       </c>
@@ -3679,8 +3682,8 @@
       <c r="X7" s="29">
         <v>0</v>
       </c>
-      <c r="Y7" s="29">
-        <v>5265.4970999999996</v>
+      <c r="Y7" s="69">
+        <v>5268.8906999999999</v>
       </c>
       <c r="Z7" s="29">
         <v>0</v>
@@ -3794,8 +3797,8 @@
       <c r="X8" s="62">
         <v>0</v>
       </c>
-      <c r="Y8" s="80">
-        <v>-5265.4970999999996</v>
+      <c r="Y8" s="81">
+        <v>-5268.8906999999999</v>
       </c>
       <c r="Z8" s="62">
         <v>0</v>
@@ -6942,16 +6945,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6982,11 +6985,11 @@
       <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="130" t="s">
+      <c r="F2" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -7042,19 +7045,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -7079,16 +7082,16 @@
       <c r="E6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="132" t="s">
+      <c r="F6" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="132" t="s">
+      <c r="G6" s="134"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="133"/>
-      <c r="K6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="135"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
@@ -7124,22 +7127,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="129"/>
-      <c r="M8" s="129"/>
-      <c r="N8" s="129"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130"/>
+      <c r="M8" s="130"/>
+      <c r="N8" s="130"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -7164,21 +7167,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="130" t="s">
+      <c r="F9" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="131" t="s">
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="131"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="131" t="s">
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132" t="s">
         <v>247</v>
       </c>
-      <c r="M9" s="131"/>
-      <c r="N9" s="131"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -7232,19 +7235,19 @@
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -7269,16 +7272,16 @@
       <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="130" t="s">
+      <c r="F13" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131" t="s">
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="131"/>
-      <c r="K13" s="131"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -7420,19 +7423,19 @@
       <c r="X17" s="10"/>
     </row>
     <row r="18" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="129" t="s">
+      <c r="A18" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="129"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
@@ -7457,16 +7460,16 @@
       <c r="E19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="130" t="s">
+      <c r="F19" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="131" t="s">
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="131"/>
-      <c r="K19" s="131"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="132"/>
     </row>
     <row r="20" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
@@ -7490,19 +7493,19 @@
       <c r="X20" s="10"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="129" t="s">
+      <c r="A21" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="129"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="129"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="130"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
@@ -7527,16 +7530,16 @@
       <c r="E22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="130" t="s">
+      <c r="F22" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="131" t="s">
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="131"/>
-      <c r="K22" s="131"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="132"/>
     </row>
     <row r="23" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
@@ -7572,22 +7575,22 @@
     </row>
     <row r="24" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="129" t="s">
+      <c r="A25" s="130" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="129"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="129"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="129"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="130"/>
+      <c r="L25" s="130"/>
+      <c r="M25" s="130"/>
+      <c r="N25" s="130"/>
     </row>
     <row r="26" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
@@ -7605,44 +7608,44 @@
       <c r="E26" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="130" t="s">
+      <c r="F26" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="131" t="s">
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="J26" s="131"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131" t="s">
+      <c r="J26" s="132"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="132" t="s">
         <v>119</v>
       </c>
-      <c r="M26" s="131"/>
-      <c r="N26" s="131"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="132"/>
     </row>
     <row r="27" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="129" t="s">
+      <c r="A29" s="130" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="129"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="129"/>
-      <c r="L29" s="129"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="129"/>
-      <c r="O29" s="129"/>
-      <c r="P29" s="129"/>
-      <c r="Q29" s="129"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="130"/>
+      <c r="L29" s="130"/>
+      <c r="M29" s="130"/>
+      <c r="N29" s="130"/>
+      <c r="O29" s="130"/>
+      <c r="P29" s="130"/>
+      <c r="Q29" s="130"/>
     </row>
     <row r="30" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
@@ -7660,26 +7663,26 @@
       <c r="E30" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="132" t="s">
+      <c r="F30" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="133"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="132" t="s">
+      <c r="G30" s="134"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="133"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="131" t="s">
+      <c r="J30" s="134"/>
+      <c r="K30" s="135"/>
+      <c r="L30" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="M30" s="131"/>
-      <c r="N30" s="131"/>
-      <c r="O30" s="131" t="s">
+      <c r="M30" s="132"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="132" t="s">
         <v>122</v>
       </c>
-      <c r="P30" s="131"/>
-      <c r="Q30" s="131"/>
+      <c r="P30" s="132"/>
+      <c r="Q30" s="132"/>
     </row>
     <row r="31" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
@@ -7714,14 +7717,14 @@
       <c r="R32"/>
     </row>
     <row r="33" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="129" t="s">
+      <c r="A33" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="129"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
       <c r="G33" s="11"/>
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
@@ -7798,12 +7801,12 @@
       <c r="X36" s="10"/>
     </row>
     <row r="37" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="129" t="s">
+      <c r="A37" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="129"/>
-      <c r="C37" s="129"/>
-      <c r="D37" s="129"/>
+      <c r="B37" s="130"/>
+      <c r="C37" s="130"/>
+      <c r="D37" s="130"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -7869,15 +7872,15 @@
       <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="135" t="s">
+      <c r="A41" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="136"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="137"/>
+      <c r="B41" s="137"/>
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="138"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="67" t="s">
@@ -7892,11 +7895,11 @@
       <c r="D42" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="131" t="s">
+      <c r="E42" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="131"/>
-      <c r="G42" s="131"/>
+      <c r="F42" s="132"/>
+      <c r="G42" s="132"/>
     </row>
     <row r="43" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="46"/>
@@ -8135,21 +8138,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139" t="s">
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140" t="s">
         <v>255</v>
       </c>
-      <c r="K1" s="139"/>
+      <c r="K1" s="140"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
@@ -8167,11 +8170,11 @@
       <c r="E2" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="131" t="s">
+      <c r="F2" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
       <c r="I2" s="73" t="s">
         <v>252</v>
       </c>
@@ -8228,58 +8231,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="140"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="129"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="142" t="s">
+      <c r="A2" s="130"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="143" t="s">
         <v>245</v>
       </c>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="144"/>
-      <c r="AB2" s="145" t="s">
+      <c r="O2" s="144"/>
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="145"/>
+      <c r="AB2" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="AC2" s="146"/>
-      <c r="AD2" s="146"/>
-      <c r="AE2" s="146"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="147"/>
+      <c r="AC2" s="147"/>
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="147"/>
+      <c r="AG2" s="148"/>
     </row>
     <row r="3" spans="1:33" s="34" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
@@ -8297,16 +8300,16 @@
       <c r="E3" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="140" t="s">
+      <c r="F3" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="161"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="158" t="s">
+      <c r="G3" s="162"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="159"/>
-      <c r="K3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="161"/>
       <c r="L3" s="64" t="s">
         <v>240</v>
       </c>
@@ -8325,16 +8328,16 @@
       <c r="Q3" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="162" t="s">
+      <c r="R3" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="S3" s="162"/>
-      <c r="AB3" s="148"/>
-      <c r="AC3" s="149"/>
-      <c r="AD3" s="149"/>
-      <c r="AE3" s="149"/>
-      <c r="AF3" s="149"/>
-      <c r="AG3" s="150"/>
+      <c r="S3" s="163"/>
+      <c r="AB3" s="149"/>
+      <c r="AC3" s="150"/>
+      <c r="AD3" s="150"/>
+      <c r="AE3" s="150"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="151"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B4" s="46" t="s">
@@ -8376,12 +8379,12 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
-      <c r="AB4" s="148"/>
-      <c r="AC4" s="149"/>
-      <c r="AD4" s="149"/>
-      <c r="AE4" s="149"/>
-      <c r="AF4" s="149"/>
-      <c r="AG4" s="150"/>
+      <c r="AB4" s="149"/>
+      <c r="AC4" s="150"/>
+      <c r="AD4" s="150"/>
+      <c r="AE4" s="150"/>
+      <c r="AF4" s="150"/>
+      <c r="AG4" s="151"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
@@ -8425,76 +8428,76 @@
       <c r="Q5" s="46"/>
       <c r="R5" s="46"/>
       <c r="S5" s="46"/>
-      <c r="AB5" s="148"/>
-      <c r="AC5" s="149"/>
-      <c r="AD5" s="149"/>
-      <c r="AE5" s="149"/>
-      <c r="AF5" s="149"/>
-      <c r="AG5" s="150"/>
+      <c r="AB5" s="149"/>
+      <c r="AC5" s="150"/>
+      <c r="AD5" s="150"/>
+      <c r="AE5" s="150"/>
+      <c r="AF5" s="150"/>
+      <c r="AG5" s="151"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AB6" s="148"/>
-      <c r="AC6" s="149"/>
-      <c r="AD6" s="149"/>
-      <c r="AE6" s="149"/>
-      <c r="AF6" s="149"/>
-      <c r="AG6" s="150"/>
+      <c r="AB6" s="149"/>
+      <c r="AC6" s="150"/>
+      <c r="AD6" s="150"/>
+      <c r="AE6" s="150"/>
+      <c r="AF6" s="150"/>
+      <c r="AG6" s="151"/>
     </row>
     <row r="7" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="138" t="s">
+      <c r="A7" s="139" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="139"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="139"/>
-      <c r="AB7" s="148"/>
-      <c r="AC7" s="149"/>
-      <c r="AD7" s="149"/>
-      <c r="AE7" s="149"/>
-      <c r="AF7" s="149"/>
-      <c r="AG7" s="150"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="140"/>
+      <c r="P7" s="140"/>
+      <c r="Q7" s="140"/>
+      <c r="R7" s="140"/>
+      <c r="AB7" s="149"/>
+      <c r="AC7" s="150"/>
+      <c r="AD7" s="150"/>
+      <c r="AE7" s="150"/>
+      <c r="AF7" s="150"/>
+      <c r="AG7" s="151"/>
     </row>
     <row r="8" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="129"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="129"/>
-      <c r="M8" s="129"/>
-      <c r="N8" s="163" t="s">
+      <c r="A8" s="130"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130"/>
+      <c r="M8" s="130"/>
+      <c r="N8" s="164" t="s">
         <v>244</v>
       </c>
-      <c r="O8" s="163"/>
-      <c r="P8" s="163"/>
-      <c r="Q8" s="163"/>
-      <c r="R8" s="163"/>
-      <c r="AB8" s="148"/>
-      <c r="AC8" s="149"/>
-      <c r="AD8" s="149"/>
-      <c r="AE8" s="149"/>
-      <c r="AF8" s="149"/>
-      <c r="AG8" s="150"/>
+      <c r="O8" s="164"/>
+      <c r="P8" s="164"/>
+      <c r="Q8" s="164"/>
+      <c r="R8" s="164"/>
+      <c r="AB8" s="149"/>
+      <c r="AC8" s="150"/>
+      <c r="AD8" s="150"/>
+      <c r="AE8" s="150"/>
+      <c r="AF8" s="150"/>
+      <c r="AG8" s="151"/>
     </row>
     <row r="9" spans="1:33" s="34" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75" t="s">
@@ -8512,16 +8515,16 @@
       <c r="E9" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="140" t="s">
+      <c r="F9" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="161"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="158" t="s">
+      <c r="G9" s="162"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="159"/>
-      <c r="K9" s="160"/>
+      <c r="J9" s="160"/>
+      <c r="K9" s="161"/>
       <c r="L9" s="39" t="s">
         <v>108</v>
       </c>
@@ -8537,16 +8540,16 @@
       <c r="P9" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="Q9" s="140" t="s">
+      <c r="Q9" s="141" t="s">
         <v>113</v>
       </c>
-      <c r="R9" s="141"/>
-      <c r="AB9" s="148"/>
-      <c r="AC9" s="149"/>
-      <c r="AD9" s="149"/>
-      <c r="AE9" s="149"/>
-      <c r="AF9" s="149"/>
-      <c r="AG9" s="150"/>
+      <c r="R9" s="142"/>
+      <c r="AB9" s="149"/>
+      <c r="AC9" s="150"/>
+      <c r="AD9" s="150"/>
+      <c r="AE9" s="150"/>
+      <c r="AF9" s="150"/>
+      <c r="AG9" s="151"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
@@ -8582,12 +8585,12 @@
         <v>40</v>
       </c>
       <c r="M10" s="25"/>
-      <c r="AB10" s="148"/>
-      <c r="AC10" s="149"/>
-      <c r="AD10" s="149"/>
-      <c r="AE10" s="149"/>
-      <c r="AF10" s="149"/>
-      <c r="AG10" s="150"/>
+      <c r="AB10" s="149"/>
+      <c r="AC10" s="150"/>
+      <c r="AD10" s="150"/>
+      <c r="AE10" s="150"/>
+      <c r="AF10" s="150"/>
+      <c r="AG10" s="151"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
@@ -8622,85 +8625,85 @@
       <c r="L11" s="72">
         <v>40</v>
       </c>
-      <c r="AB11" s="148"/>
-      <c r="AC11" s="149"/>
-      <c r="AD11" s="149"/>
-      <c r="AE11" s="149"/>
-      <c r="AF11" s="149"/>
-      <c r="AG11" s="150"/>
+      <c r="AB11" s="149"/>
+      <c r="AC11" s="150"/>
+      <c r="AD11" s="150"/>
+      <c r="AE11" s="150"/>
+      <c r="AF11" s="150"/>
+      <c r="AG11" s="151"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Q12" s="46"/>
-      <c r="AB12" s="148"/>
-      <c r="AC12" s="149"/>
-      <c r="AD12" s="149"/>
-      <c r="AE12" s="149"/>
-      <c r="AF12" s="149"/>
-      <c r="AG12" s="150"/>
+      <c r="AB12" s="149"/>
+      <c r="AC12" s="150"/>
+      <c r="AD12" s="150"/>
+      <c r="AE12" s="150"/>
+      <c r="AF12" s="150"/>
+      <c r="AG12" s="151"/>
     </row>
     <row r="13" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="139"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="139"/>
-      <c r="P13" s="139"/>
-      <c r="Q13" s="139"/>
-      <c r="R13" s="139"/>
-      <c r="S13" s="139"/>
-      <c r="T13" s="139"/>
-      <c r="U13" s="139"/>
-      <c r="V13" s="139"/>
-      <c r="W13" s="139"/>
-      <c r="X13" s="139"/>
-      <c r="Y13" s="139"/>
-      <c r="AB13" s="151"/>
-      <c r="AC13" s="152"/>
-      <c r="AD13" s="152"/>
-      <c r="AE13" s="152"/>
-      <c r="AF13" s="152"/>
-      <c r="AG13" s="153"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="140"/>
+      <c r="N13" s="140"/>
+      <c r="O13" s="140"/>
+      <c r="P13" s="140"/>
+      <c r="Q13" s="140"/>
+      <c r="R13" s="140"/>
+      <c r="S13" s="140"/>
+      <c r="T13" s="140"/>
+      <c r="U13" s="140"/>
+      <c r="V13" s="140"/>
+      <c r="W13" s="140"/>
+      <c r="X13" s="140"/>
+      <c r="Y13" s="140"/>
+      <c r="AB13" s="152"/>
+      <c r="AC13" s="153"/>
+      <c r="AD13" s="153"/>
+      <c r="AE13" s="153"/>
+      <c r="AF13" s="153"/>
+      <c r="AG13" s="154"/>
     </row>
     <row r="14" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="135"/>
-      <c r="B14" s="136"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="136"/>
-      <c r="Q14" s="136"/>
-      <c r="R14" s="136"/>
-      <c r="S14" s="137"/>
-      <c r="T14" s="142" t="s">
+      <c r="A14" s="136"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="137"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="137"/>
+      <c r="R14" s="137"/>
+      <c r="S14" s="138"/>
+      <c r="T14" s="143" t="s">
         <v>246</v>
       </c>
-      <c r="U14" s="143"/>
-      <c r="V14" s="143"/>
-      <c r="W14" s="143"/>
-      <c r="X14" s="143"/>
-      <c r="Y14" s="144"/>
+      <c r="U14" s="144"/>
+      <c r="V14" s="144"/>
+      <c r="W14" s="144"/>
+      <c r="X14" s="144"/>
+      <c r="Y14" s="145"/>
       <c r="Z14" s="76"/>
       <c r="AA14" s="76"/>
     </row>
@@ -8720,26 +8723,26 @@
       <c r="E15" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="157" t="s">
+      <c r="F15" s="158" t="s">
         <v>248</v>
       </c>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="158" t="s">
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="159" t="s">
         <v>249</v>
       </c>
-      <c r="J15" s="159"/>
-      <c r="K15" s="160"/>
-      <c r="L15" s="154" t="s">
+      <c r="J15" s="160"/>
+      <c r="K15" s="161"/>
+      <c r="L15" s="155" t="s">
         <v>250</v>
       </c>
-      <c r="M15" s="155"/>
-      <c r="N15" s="156"/>
-      <c r="O15" s="154" t="s">
+      <c r="M15" s="156"/>
+      <c r="N15" s="157"/>
+      <c r="O15" s="155" t="s">
         <v>251</v>
       </c>
-      <c r="P15" s="155"/>
-      <c r="Q15" s="156"/>
+      <c r="P15" s="156"/>
+      <c r="Q15" s="157"/>
       <c r="R15" s="39" t="s">
         <v>71</v>
       </c>
@@ -8758,10 +8761,10 @@
       <c r="W15" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="X15" s="140" t="s">
+      <c r="X15" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="Y15" s="141"/>
+      <c r="Y15" s="142"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>
@@ -8808,25 +8811,25 @@
       <c r="T17" s="37"/>
     </row>
     <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="138" t="s">
+      <c r="A18" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="139"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="139"/>
-      <c r="K18" s="139"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="139"/>
-      <c r="N18" s="139"/>
-      <c r="O18" s="139"/>
-      <c r="P18" s="139"/>
-      <c r="Q18" s="139"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="140"/>
+      <c r="Q18" s="140"/>
     </row>
     <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="77"/>
@@ -8840,14 +8843,14 @@
       <c r="I19" s="78"/>
       <c r="J19" s="78"/>
       <c r="K19" s="78"/>
-      <c r="L19" s="142" t="s">
+      <c r="L19" s="143" t="s">
         <v>245</v>
       </c>
-      <c r="M19" s="143"/>
-      <c r="N19" s="143"/>
-      <c r="O19" s="143"/>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="144"/>
+      <c r="M19" s="144"/>
+      <c r="N19" s="144"/>
+      <c r="O19" s="144"/>
+      <c r="P19" s="144"/>
+      <c r="Q19" s="145"/>
     </row>
     <row r="20" spans="1:20" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="74" t="s">
@@ -8865,16 +8868,16 @@
       <c r="E20" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="157" t="s">
+      <c r="F20" s="158" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="154" t="s">
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="155" t="s">
         <v>152</v>
       </c>
-      <c r="J20" s="155"/>
-      <c r="K20" s="156"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="157"/>
       <c r="L20" s="75" t="s">
         <v>109</v>
       </c>
@@ -8887,10 +8890,10 @@
       <c r="O20" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="P20" s="140" t="s">
+      <c r="P20" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="Q20" s="141"/>
+      <c r="Q20" s="142"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="46"/>
@@ -8987,21 +8990,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="130" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="F1" s="85" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="F1" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="87"/>
-      <c r="I1" s="85" t="s">
+      <c r="G1" s="88"/>
+      <c r="I1" s="86" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="88"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
@@ -9019,12 +9022,12 @@
       <c r="G2" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="164" t="s">
+      <c r="I2" s="165" t="s">
         <v>230</v>
       </c>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
@@ -9036,10 +9039,10 @@
       <c r="G3" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
@@ -9051,10 +9054,10 @@
       <c r="G4" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
-      <c r="K4" s="164"/>
-      <c r="L4" s="164"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="165"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="59"/>
@@ -9066,10 +9069,10 @@
       <c r="G5" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
-      <c r="K5" s="164"/>
-      <c r="L5" s="164"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
+      <c r="K5" s="165"/>
+      <c r="L5" s="165"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="59"/>
@@ -9081,10 +9084,10 @@
       <c r="G6" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="I6" s="164"/>
-      <c r="J6" s="164"/>
-      <c r="K6" s="164"/>
-      <c r="L6" s="164"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="59"/>
